--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.3811681968902</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H2">
-        <v>3.3811681968902</v>
+        <v>12.216248</v>
       </c>
       <c r="I2">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J2">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.602066569673</v>
+        <v>17.79587766666667</v>
       </c>
       <c r="N2">
-        <v>17.602066569673</v>
+        <v>53.38763299999999</v>
       </c>
       <c r="O2">
-        <v>0.1813016277475595</v>
+        <v>0.1793479316144739</v>
       </c>
       <c r="P2">
-        <v>0.1813016277475595</v>
+        <v>0.179347931614474</v>
       </c>
       <c r="Q2">
-        <v>59.51554768492252</v>
+        <v>72.46628498455378</v>
       </c>
       <c r="R2">
-        <v>59.51554768492252</v>
+        <v>652.1965648609839</v>
       </c>
       <c r="S2">
-        <v>0.07534662880127371</v>
+        <v>0.0713791313693415</v>
       </c>
       <c r="T2">
-        <v>0.07534662880127371</v>
+        <v>0.07137913136934151</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.3811681968902</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H3">
-        <v>3.3811681968902</v>
+        <v>12.216248</v>
       </c>
       <c r="I3">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J3">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.1701162231372</v>
+        <v>72.39518466666667</v>
       </c>
       <c r="N3">
-        <v>71.1701162231372</v>
+        <v>217.185554</v>
       </c>
       <c r="O3">
-        <v>0.7330535802238745</v>
+        <v>0.7296030503252249</v>
       </c>
       <c r="P3">
-        <v>0.7330535802238745</v>
+        <v>0.7296030503252251</v>
       </c>
       <c r="Q3">
-        <v>240.6381335426508</v>
+        <v>294.7991766312658</v>
       </c>
       <c r="R3">
-        <v>240.6381335426508</v>
+        <v>2653.192589681392</v>
       </c>
       <c r="S3">
-        <v>0.3046476564318463</v>
+        <v>0.2903765407709537</v>
       </c>
       <c r="T3">
-        <v>0.3046476564318463</v>
+        <v>0.2903765407709538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.3811681968902</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H4">
-        <v>3.3811681968902</v>
+        <v>12.216248</v>
       </c>
       <c r="I4">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J4">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.253874954159661</v>
+        <v>0.257112</v>
       </c>
       <c r="N4">
-        <v>0.253874954159661</v>
+        <v>0.771336</v>
       </c>
       <c r="O4">
-        <v>0.002614916961670067</v>
+        <v>0.00259119028895291</v>
       </c>
       <c r="P4">
-        <v>0.002614916961670067</v>
+        <v>0.00259119028895291</v>
       </c>
       <c r="Q4">
-        <v>0.8583939209916031</v>
+        <v>1.046981318592</v>
       </c>
       <c r="R4">
-        <v>0.8583939209916031</v>
+        <v>9.422831867328</v>
       </c>
       <c r="S4">
-        <v>0.00108672591694236</v>
+        <v>0.001031274296687819</v>
       </c>
       <c r="T4">
-        <v>0.00108672591694236</v>
+        <v>0.001031274296687819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.3811681968902</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H5">
-        <v>3.3811681968902</v>
+        <v>12.216248</v>
       </c>
       <c r="I5">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J5">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.31455437288889</v>
+        <v>0.4631083333333333</v>
       </c>
       <c r="N5">
-        <v>0.31455437288889</v>
+        <v>1.389325</v>
       </c>
       <c r="O5">
-        <v>0.003239916153829658</v>
+        <v>0.004667233797203165</v>
       </c>
       <c r="P5">
-        <v>0.003239916153829658</v>
+        <v>0.004667233797203166</v>
       </c>
       <c r="Q5">
-        <v>1.063561241804656</v>
+        <v>1.885815416955555</v>
       </c>
       <c r="R5">
-        <v>1.063561241804656</v>
+        <v>16.9723387526</v>
       </c>
       <c r="S5">
-        <v>0.001346467556980551</v>
+        <v>0.001857524039129256</v>
       </c>
       <c r="T5">
-        <v>0.001346467556980551</v>
+        <v>0.001857524039129257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.3811681968902</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H6">
-        <v>3.3811681968902</v>
+        <v>12.216248</v>
       </c>
       <c r="I6">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J6">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.74658333644318</v>
+        <v>8.314158666666666</v>
       </c>
       <c r="N6">
-        <v>7.74658333644318</v>
+        <v>24.942476</v>
       </c>
       <c r="O6">
-        <v>0.07978995891306642</v>
+        <v>0.08379059397414486</v>
       </c>
       <c r="P6">
-        <v>0.07978995891306642</v>
+        <v>0.08379059397414489</v>
       </c>
       <c r="Q6">
-        <v>26.19250121174126</v>
+        <v>33.85594139444977</v>
       </c>
       <c r="R6">
-        <v>26.19250121174126</v>
+        <v>304.703472550048</v>
       </c>
       <c r="S6">
-        <v>0.03315968251902594</v>
+        <v>0.03334802783035253</v>
       </c>
       <c r="T6">
-        <v>0.03315968251902594</v>
+        <v>0.03334802783035255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.75471402554191</v>
+        <v>6.159473666666667</v>
       </c>
       <c r="H7">
-        <v>4.75471402554191</v>
+        <v>18.478421</v>
       </c>
       <c r="I7">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="J7">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.602066569673</v>
+        <v>17.79587766666667</v>
       </c>
       <c r="N7">
-        <v>17.602066569673</v>
+        <v>53.38763299999999</v>
       </c>
       <c r="O7">
-        <v>0.1813016277475595</v>
+        <v>0.1793479316144739</v>
       </c>
       <c r="P7">
-        <v>0.1813016277475595</v>
+        <v>0.179347931614474</v>
       </c>
       <c r="Q7">
-        <v>83.69279279734658</v>
+        <v>109.6132398630548</v>
       </c>
       <c r="R7">
-        <v>83.69279279734658</v>
+        <v>986.519158767493</v>
       </c>
       <c r="S7">
-        <v>0.1059549989462858</v>
+        <v>0.1079688002451324</v>
       </c>
       <c r="T7">
-        <v>0.1059549989462858</v>
+        <v>0.1079688002451325</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.75471402554191</v>
+        <v>6.159473666666667</v>
       </c>
       <c r="H8">
-        <v>4.75471402554191</v>
+        <v>18.478421</v>
       </c>
       <c r="I8">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="J8">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.1701162231372</v>
+        <v>72.39518466666667</v>
       </c>
       <c r="N8">
-        <v>71.1701162231372</v>
+        <v>217.185554</v>
       </c>
       <c r="O8">
-        <v>0.7330535802238745</v>
+        <v>0.7296030503252249</v>
       </c>
       <c r="P8">
-        <v>0.7330535802238745</v>
+        <v>0.7296030503252251</v>
       </c>
       <c r="Q8">
-        <v>338.3935498055982</v>
+        <v>445.9162335478038</v>
       </c>
       <c r="R8">
-        <v>338.3935498055982</v>
+        <v>4013.246101930234</v>
       </c>
       <c r="S8">
-        <v>0.4284059237920282</v>
+        <v>0.4392265095542712</v>
       </c>
       <c r="T8">
-        <v>0.4284059237920282</v>
+        <v>0.4392265095542713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.75471402554191</v>
+        <v>6.159473666666667</v>
       </c>
       <c r="H9">
-        <v>4.75471402554191</v>
+        <v>18.478421</v>
       </c>
       <c r="I9">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="J9">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.253874954159661</v>
+        <v>0.257112</v>
       </c>
       <c r="N9">
-        <v>0.253874954159661</v>
+        <v>0.771336</v>
       </c>
       <c r="O9">
-        <v>0.002614916961670067</v>
+        <v>0.00259119028895291</v>
       </c>
       <c r="P9">
-        <v>0.002614916961670067</v>
+        <v>0.00259119028895291</v>
       </c>
       <c r="Q9">
-        <v>1.20710280527675</v>
+        <v>1.583674593384</v>
       </c>
       <c r="R9">
-        <v>1.20710280527675</v>
+        <v>14.253071340456</v>
       </c>
       <c r="S9">
-        <v>0.001528191044727707</v>
+        <v>0.00155991599226509</v>
       </c>
       <c r="T9">
-        <v>0.001528191044727707</v>
+        <v>0.001559915992265091</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.75471402554191</v>
+        <v>6.159473666666667</v>
       </c>
       <c r="H10">
-        <v>4.75471402554191</v>
+        <v>18.478421</v>
       </c>
       <c r="I10">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="J10">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.31455437288889</v>
+        <v>0.4631083333333333</v>
       </c>
       <c r="N10">
-        <v>0.31455437288889</v>
+        <v>1.389325</v>
       </c>
       <c r="O10">
-        <v>0.003239916153829658</v>
+        <v>0.004667233797203165</v>
       </c>
       <c r="P10">
-        <v>0.003239916153829658</v>
+        <v>0.004667233797203166</v>
       </c>
       <c r="Q10">
-        <v>1.495616088570345</v>
+        <v>2.852503583980555</v>
       </c>
       <c r="R10">
-        <v>1.495616088570345</v>
+        <v>25.672532255825</v>
       </c>
       <c r="S10">
-        <v>0.001893448596849107</v>
+        <v>0.002809709758073909</v>
       </c>
       <c r="T10">
-        <v>0.001893448596849107</v>
+        <v>0.002809709758073909</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.75471402554191</v>
+        <v>6.159473666666667</v>
       </c>
       <c r="H11">
-        <v>4.75471402554191</v>
+        <v>18.478421</v>
       </c>
       <c r="I11">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="J11">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.74658333644318</v>
+        <v>8.314158666666666</v>
       </c>
       <c r="N11">
-        <v>7.74658333644318</v>
+        <v>24.942476</v>
       </c>
       <c r="O11">
-        <v>0.07978995891306642</v>
+        <v>0.08379059397414486</v>
       </c>
       <c r="P11">
-        <v>0.07978995891306642</v>
+        <v>0.08379059397414489</v>
       </c>
       <c r="Q11">
-        <v>36.83278843981563</v>
+        <v>51.21084136782177</v>
       </c>
       <c r="R11">
-        <v>36.83278843981563</v>
+        <v>460.897572310396</v>
       </c>
       <c r="S11">
-        <v>0.04663027639404049</v>
+        <v>0.05044256614379233</v>
       </c>
       <c r="T11">
-        <v>0.04663027639404049</v>
+        <v>0.05044256614379234</v>
       </c>
     </row>
   </sheetData>
